--- a/Pruning Comparison.xlsx
+++ b/Pruning Comparison.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\TO 414\RStudio wd\Group-Project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CB3EB59A-CE33-412F-9A30-405B40C2EC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10010129-78FF-4180-88E5-2DFAC2C061F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modelsbefore" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="62">
   <si>
     <t>names</t>
   </si>
@@ -198,12 +209,21 @@
   </si>
   <si>
     <t>DiffAvg</t>
+  </si>
+  <si>
+    <t>These figures, especially the table in A34:F41, indicate that on average, the pruned models do not perform any better than the models that were ran using the entire dataset.</t>
+  </si>
+  <si>
+    <t>This spreadsheet documents the results of our models before and after "pruning" the dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After running the logistic regression step model, we removed insignificant variables from the entire dataset to see if the other following models would improve.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +540,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -682,9 +708,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -731,127 +760,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1261,11 +1170,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,1909 +1185,1975 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I6" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J6" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K6" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L6" t="s">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P6" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q6" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R6" t="s">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S6" t="s">
         <v>3</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T6" t="s">
         <v>4</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W6" t="s">
         <v>0</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X6" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y6" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z6" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C7">
         <v>0.76622118923106697</v>
       </c>
-      <c r="D3">
+      <c r="D7">
         <v>0.53330769114978505</v>
       </c>
-      <c r="E3">
+      <c r="E7">
         <v>0.69950362733867899</v>
       </c>
-      <c r="F3">
+      <c r="F7">
         <v>0.83490566037735803</v>
       </c>
-      <c r="H3">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I7" t="s">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="J7">
         <v>0.76254115824133295</v>
       </c>
-      <c r="K3">
+      <c r="K7">
         <v>0.52579345101747998</v>
       </c>
-      <c r="L3">
+      <c r="L7">
         <v>0.707903780068729</v>
       </c>
-      <c r="M3">
+      <c r="M7">
         <v>0.81878930817610096</v>
       </c>
-      <c r="O3">
+      <c r="O7">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P7" t="s">
         <v>5</v>
       </c>
-      <c r="Q3">
+      <c r="Q7">
         <v>0.76157272903350803</v>
       </c>
-      <c r="R3">
+      <c r="R7">
         <v>0.52398519839688995</v>
       </c>
-      <c r="S3">
+      <c r="S7">
         <v>0.69797632684230604</v>
       </c>
-      <c r="T3">
+      <c r="T7">
         <v>0.82704402515723296</v>
       </c>
-      <c r="V3">
+      <c r="V7">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W7" t="s">
         <v>5</v>
       </c>
-      <c r="X3">
-        <f>AVERAGE(Q3,J3,C3)</f>
+      <c r="X7">
+        <f>AVERAGE(Q7,J7,C7)</f>
         <v>0.76344502550196935</v>
       </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:AA8" si="0">AVERAGE(R3,K3,D3)</f>
+      <c r="Y7">
+        <f t="shared" ref="Y7:AA12" si="0">AVERAGE(R7,K7,D7)</f>
         <v>0.52769544685471825</v>
       </c>
-      <c r="Z3">
+      <c r="Z7">
         <f t="shared" si="0"/>
         <v>0.70179457808323809</v>
       </c>
-      <c r="AA3">
+      <c r="AA7">
         <f t="shared" si="0"/>
         <v>0.82691299790356398</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C8">
         <v>0.73910517141196996</v>
       </c>
-      <c r="D4">
+      <c r="D8">
         <v>0.48040758938207301</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <v>0.59221076746849899</v>
       </c>
-      <c r="F4">
+      <c r="F8">
         <v>0.89033018867924496</v>
       </c>
-      <c r="H4">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I8" t="s">
         <v>6</v>
       </c>
-      <c r="J4">
+      <c r="J8">
         <v>0.73813674220414505</v>
       </c>
-      <c r="K4">
+      <c r="K8">
         <v>0.47807822303731301</v>
       </c>
-      <c r="L4">
+      <c r="L8">
         <v>0.61741122565864803</v>
       </c>
-      <c r="M4">
+      <c r="M8">
         <v>0.86242138364779897</v>
       </c>
-      <c r="O4">
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P8" t="s">
         <v>6</v>
       </c>
-      <c r="Q4">
+      <c r="Q8">
         <v>0.74026728646135997</v>
       </c>
-      <c r="R4">
+      <c r="R8">
         <v>0.48244362321151402</v>
       </c>
-      <c r="S4">
+      <c r="S8">
         <v>0.61168384879725102</v>
       </c>
-      <c r="T4">
+      <c r="T8">
         <v>0.87264150943396201</v>
       </c>
-      <c r="V4">
+      <c r="V8">
         <v>2</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W8" t="s">
         <v>6</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X8" si="1">AVERAGE(Q4,J4,C4)</f>
+      <c r="X8">
+        <f t="shared" ref="X8:X12" si="1">AVERAGE(Q8,J8,C8)</f>
         <v>0.73916973335915825</v>
       </c>
-      <c r="Y4">
+      <c r="Y8">
         <f t="shared" si="0"/>
         <v>0.48030981187696664</v>
       </c>
-      <c r="Z4">
+      <c r="Z8">
         <f t="shared" si="0"/>
         <v>0.60710194730813261</v>
       </c>
-      <c r="AA4">
+      <c r="AA8">
         <f t="shared" si="0"/>
         <v>0.87513102725366865</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C9">
         <v>0.76312221576602701</v>
       </c>
-      <c r="D5">
+      <c r="D9">
         <v>0.52683950832095205</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>0.79601357082273105</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>0.73547237076648797</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="J5">
+      <c r="J9">
         <v>0.76312221576602701</v>
       </c>
-      <c r="K5">
+      <c r="K9">
         <v>0.526770359235191</v>
       </c>
-      <c r="L5">
+      <c r="L9">
         <v>0.79278523489932895</v>
       </c>
-      <c r="M5">
+      <c r="M9">
         <v>0.73767542281396203</v>
       </c>
-      <c r="O5">
+      <c r="O9">
         <v>3</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P9" t="s">
         <v>7</v>
       </c>
-      <c r="Q5">
+      <c r="Q9">
         <v>0.761960100716638</v>
       </c>
-      <c r="R5">
+      <c r="R9">
         <v>0.52446474689226197</v>
       </c>
-      <c r="S5">
+      <c r="S9">
         <v>0.79226240538267501</v>
       </c>
-      <c r="T5">
+      <c r="T9">
         <v>0.73608617594254899</v>
       </c>
-      <c r="V5">
+      <c r="V9">
         <v>3</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W9" t="s">
         <v>7</v>
       </c>
-      <c r="X5">
+      <c r="X9">
         <f t="shared" si="1"/>
         <v>0.76273484408289738</v>
       </c>
-      <c r="Y5">
+      <c r="Y9">
         <f t="shared" si="0"/>
         <v>0.52602487148280164</v>
       </c>
-      <c r="Z5">
+      <c r="Z9">
         <f t="shared" si="0"/>
         <v>0.79368707036824493</v>
       </c>
-      <c r="AA5">
+      <c r="AA9">
         <f t="shared" si="0"/>
         <v>0.736411323174333</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C10">
         <v>0.763315901607592</v>
       </c>
-      <c r="D6">
+      <c r="D10">
         <v>0.52731405874438697</v>
       </c>
-      <c r="E6">
+      <c r="E10">
         <v>0.80043010752688204</v>
       </c>
-      <c r="F6">
+      <c r="F10">
         <v>0.73291050035236105</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I10" t="s">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="J10">
         <v>0.76796436180515204</v>
       </c>
-      <c r="K6">
+      <c r="K10">
         <v>0.53672773650330796</v>
       </c>
-      <c r="L6">
+      <c r="L10">
         <v>0.81230769230769195</v>
       </c>
-      <c r="M6">
+      <c r="M10">
         <v>0.73303324099723</v>
       </c>
-      <c r="O6">
+      <c r="O10">
         <v>4</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P10" t="s">
         <v>8</v>
       </c>
-      <c r="Q6">
+      <c r="Q10">
         <v>0.76757699012202196</v>
       </c>
-      <c r="R6">
+      <c r="R10">
         <v>0.53600124380065595</v>
       </c>
-      <c r="S6">
+      <c r="S10">
         <v>0.81435533894550305</v>
       </c>
-      <c r="T6">
+      <c r="T10">
         <v>0.731245698554714</v>
       </c>
-      <c r="V6">
+      <c r="V10">
         <v>4</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W10" t="s">
         <v>8</v>
       </c>
-      <c r="X6">
+      <c r="X10">
         <f t="shared" si="1"/>
         <v>0.76628575117825537</v>
       </c>
-      <c r="Y6">
+      <c r="Y10">
         <f t="shared" si="0"/>
         <v>0.53334767968278363</v>
       </c>
-      <c r="Z6">
+      <c r="Z10">
         <f t="shared" si="0"/>
         <v>0.80903104626002564</v>
       </c>
-      <c r="AA6">
+      <c r="AA10">
         <f t="shared" si="0"/>
         <v>0.73239647996810164</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C11">
         <v>0.77125702111175698</v>
       </c>
-      <c r="D7">
+      <c r="D11">
         <v>0.54358118266422295</v>
       </c>
-      <c r="E7">
+      <c r="E11">
         <v>0.83194829178208696</v>
       </c>
-      <c r="F7">
+      <c r="F11">
         <v>0.72739406072739399</v>
       </c>
-      <c r="H7">
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="J7">
+      <c r="J11">
         <v>0.76873910517141197</v>
       </c>
-      <c r="K7">
+      <c r="K11">
         <v>0.53865292763434103</v>
       </c>
-      <c r="L7">
+      <c r="L11">
         <v>0.834664161578206</v>
       </c>
-      <c r="M7">
+      <c r="M11">
         <v>0.72247857613711297</v>
       </c>
-      <c r="O7">
+      <c r="O11">
         <v>5</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P11" t="s">
         <v>9</v>
       </c>
-      <c r="Q7">
+      <c r="Q11">
         <v>0.76641487507263195</v>
       </c>
-      <c r="R7">
+      <c r="R11">
         <v>0.53382788211147802</v>
       </c>
-      <c r="S7">
+      <c r="S11">
         <v>0.82099045888232602</v>
       </c>
-      <c r="T7">
+      <c r="T11">
         <v>0.72586090479405796</v>
       </c>
-      <c r="V7">
+      <c r="V11">
         <v>5</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W11" t="s">
         <v>9</v>
       </c>
-      <c r="X7">
+      <c r="X11">
         <f t="shared" si="1"/>
         <v>0.76880366711860038</v>
       </c>
-      <c r="Y7">
+      <c r="Y11">
         <f t="shared" si="0"/>
         <v>0.5386873308033473</v>
       </c>
-      <c r="Z7">
+      <c r="Z11">
         <f t="shared" si="0"/>
         <v>0.82920097074753973</v>
       </c>
-      <c r="AA7">
+      <c r="AA11">
         <f t="shared" si="0"/>
         <v>0.72524451388618827</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C12">
         <v>0.778466305189775</v>
       </c>
-      <c r="D8">
+      <c r="D12">
         <v>0.552620355067441</v>
       </c>
-      <c r="E8">
+      <c r="E12">
         <v>0.81660231660231697</v>
       </c>
-      <c r="F8">
+      <c r="F12">
         <v>0.75291073738680503</v>
       </c>
-      <c r="H8">
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J8">
+      <c r="J12">
         <v>0.76762199845081303</v>
       </c>
-      <c r="K8">
+      <c r="K12">
         <v>0.52978741486274805</v>
       </c>
-      <c r="L8">
+      <c r="L12">
         <v>0.819105691056911</v>
       </c>
-      <c r="M8">
+      <c r="M12">
         <v>0.73591989987484396</v>
       </c>
-      <c r="O8">
+      <c r="O12">
         <v>6</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P12" t="s">
         <v>10</v>
       </c>
-      <c r="Q8">
+      <c r="Q12">
         <v>0.776917118512781</v>
       </c>
-      <c r="R8">
+      <c r="R12">
         <v>0.55195434322595605</v>
       </c>
-      <c r="S8">
+      <c r="S12">
         <v>0.77627118644067805</v>
       </c>
-      <c r="T8">
+      <c r="T12">
         <v>0.77746077032810301</v>
       </c>
-      <c r="V8">
+      <c r="V12">
         <v>6</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W12" t="s">
         <v>10</v>
       </c>
-      <c r="X8">
+      <c r="X12">
         <f t="shared" si="1"/>
         <v>0.77433514071778964</v>
       </c>
-      <c r="Y8">
+      <c r="Y12">
         <f t="shared" si="0"/>
         <v>0.54478737105204844</v>
       </c>
-      <c r="Z8">
+      <c r="Z12">
         <f t="shared" si="0"/>
         <v>0.80399306469996867</v>
       </c>
-      <c r="AA8">
+      <c r="AA12">
         <f t="shared" si="0"/>
         <v>0.75543046919658396</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H15" t="s">
         <v>54</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O15" t="s">
         <v>57</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I16" t="s">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J16" t="s">
         <v>1</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K16" t="s">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L16" t="s">
         <v>3</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M16" t="s">
         <v>4</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P16" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q16" t="s">
         <v>1</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R16" t="s">
         <v>2</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S16" t="s">
         <v>3</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T16" t="s">
         <v>4</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W16" t="s">
         <v>0</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X16" t="s">
         <v>1</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y16" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z16" t="s">
         <v>3</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <v>0.75750532636064305</v>
       </c>
-      <c r="D13">
+      <c r="D17">
         <v>0.51562256231153203</v>
       </c>
-      <c r="E13">
+      <c r="E17">
         <v>0.71095838106147402</v>
       </c>
-      <c r="F13">
+      <c r="F17">
         <v>0.80542452830188704</v>
       </c>
-      <c r="H13">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I17" t="s">
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="J17">
         <v>0.75750532636064305</v>
       </c>
-      <c r="K13">
+      <c r="K17">
         <v>0.51562256231153203</v>
       </c>
-      <c r="L13">
+      <c r="L17">
         <v>0.71095838106147402</v>
       </c>
-      <c r="M13">
+      <c r="M17">
         <v>0.80542452830188704</v>
       </c>
-      <c r="O13">
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P17" t="s">
         <v>5</v>
       </c>
-      <c r="Q13">
+      <c r="Q17">
         <v>0.76447801665698201</v>
       </c>
-      <c r="R13">
+      <c r="R17">
         <v>0.52966665273243496</v>
       </c>
-      <c r="S13">
+      <c r="S17">
         <v>0.70943108056510096</v>
       </c>
-      <c r="T13">
+      <c r="T17">
         <v>0.82114779874213795</v>
       </c>
-      <c r="V13">
+      <c r="V17">
         <v>1</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W17" t="s">
         <v>5</v>
       </c>
-      <c r="X13">
-        <f>AVERAGE(Q13,J13,C13)</f>
+      <c r="X17">
+        <f>AVERAGE(Q17,J17,C17)</f>
         <v>0.75982955645942274</v>
       </c>
-      <c r="Y13">
-        <f t="shared" ref="Y13:Y18" si="2">AVERAGE(R13,K13,D13)</f>
+      <c r="Y17">
+        <f t="shared" ref="Y17:Y22" si="2">AVERAGE(R17,K17,D17)</f>
         <v>0.52030392578516638</v>
       </c>
-      <c r="Z13">
-        <f t="shared" ref="Z13:Z18" si="3">AVERAGE(S13,L13,E13)</f>
+      <c r="Z17">
+        <f t="shared" ref="Z17:Z22" si="3">AVERAGE(S17,L17,E17)</f>
         <v>0.71044928089601633</v>
       </c>
-      <c r="AA13">
-        <f t="shared" ref="AA13:AA18" si="4">AVERAGE(T13,M13,F13)</f>
+      <c r="AA17">
+        <f t="shared" ref="AA17:AA22" si="4">AVERAGE(T17,M17,F17)</f>
         <v>0.81066561844863738</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C18">
         <v>0.74201045903544405</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <v>0.48593733041151499</v>
       </c>
-      <c r="E14">
+      <c r="E18">
         <v>0.61206567392134403</v>
       </c>
-      <c r="F14">
+      <c r="F18">
         <v>0.87578616352201299</v>
       </c>
-      <c r="H14">
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I18" t="s">
         <v>6</v>
       </c>
-      <c r="J14">
+      <c r="J18">
         <v>0.74201045903544405</v>
       </c>
-      <c r="K14">
+      <c r="K18">
         <v>0.48593733041151499</v>
       </c>
-      <c r="L14">
+      <c r="L18">
         <v>0.61206567392134403</v>
       </c>
-      <c r="M14">
+      <c r="M18">
         <v>0.87578616352201299</v>
       </c>
-      <c r="O14">
+      <c r="O18">
         <v>2</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P18" t="s">
         <v>6</v>
       </c>
-      <c r="Q14">
+      <c r="Q18">
         <v>0.74239783071857401</v>
       </c>
-      <c r="R14">
+      <c r="R18">
         <v>0.486755234180411</v>
       </c>
-      <c r="S14">
+      <c r="S18">
         <v>0.60939289805269203</v>
       </c>
-      <c r="T14">
+      <c r="T18">
         <v>0.87932389937106903</v>
       </c>
-      <c r="V14">
+      <c r="V18">
         <v>2</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W18" t="s">
         <v>6</v>
       </c>
-      <c r="X14">
-        <f t="shared" ref="X14:X18" si="5">AVERAGE(Q14,J14,C14)</f>
+      <c r="X18">
+        <f t="shared" ref="X18:X22" si="5">AVERAGE(Q18,J18,C18)</f>
         <v>0.74213958292982074</v>
       </c>
-      <c r="Y14">
+      <c r="Y18">
         <f t="shared" si="2"/>
         <v>0.48620996500114694</v>
       </c>
-      <c r="Z14">
+      <c r="Z18">
         <f t="shared" si="3"/>
         <v>0.61117474863179344</v>
       </c>
-      <c r="AA14">
+      <c r="AA18">
         <f t="shared" si="4"/>
         <v>0.87696540880503171</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C19">
         <v>0.75866744141003295</v>
       </c>
-      <c r="D15">
+      <c r="D19">
         <v>0.51774329791090701</v>
       </c>
-      <c r="E15">
+      <c r="E19">
         <v>0.78239407651172399</v>
       </c>
-      <c r="F15">
+      <c r="F19">
         <v>0.737554904831625</v>
       </c>
-      <c r="H15">
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I19" t="s">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="J19">
         <v>0.75866744141003295</v>
       </c>
-      <c r="K15">
+      <c r="K19">
         <v>0.51774329791090701</v>
       </c>
-      <c r="L15">
+      <c r="L19">
         <v>0.78239407651172399</v>
       </c>
-      <c r="M15">
+      <c r="M19">
         <v>0.737554904831625</v>
       </c>
-      <c r="O15">
+      <c r="O19">
         <v>3</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P19" t="s">
         <v>7</v>
       </c>
-      <c r="Q15">
+      <c r="Q19">
         <v>0.763315901607592</v>
       </c>
-      <c r="R15">
+      <c r="R19">
         <v>0.52715464307860704</v>
       </c>
-      <c r="S15">
+      <c r="S19">
         <v>0.79287211740041896</v>
       </c>
-      <c r="T15">
+      <c r="T19">
         <v>0.737940964722822</v>
       </c>
-      <c r="V15">
+      <c r="V19">
         <v>3</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W19" t="s">
         <v>7</v>
       </c>
-      <c r="X15">
+      <c r="X19">
         <f t="shared" si="5"/>
         <v>0.76021692814255271</v>
       </c>
-      <c r="Y15">
+      <c r="Y19">
         <f t="shared" si="2"/>
         <v>0.52088041296680698</v>
       </c>
-      <c r="Z15">
+      <c r="Z19">
         <f t="shared" si="3"/>
         <v>0.78588675680795561</v>
       </c>
-      <c r="AA15">
+      <c r="AA19">
         <f t="shared" si="4"/>
         <v>0.737683591462024</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>0.75828006972690298</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <v>0.51712124577668195</v>
       </c>
-      <c r="E16">
+      <c r="E20">
         <v>0.78863157894736802</v>
       </c>
-      <c r="F16">
+      <c r="F20">
         <v>0.73242467718794801</v>
       </c>
-      <c r="H16">
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I20" t="s">
         <v>8</v>
       </c>
-      <c r="J16">
+      <c r="J20">
         <v>0.75828006972690298</v>
       </c>
-      <c r="K16">
+      <c r="K20">
         <v>0.51712124577668195</v>
       </c>
-      <c r="L16">
+      <c r="L20">
         <v>0.78863157894736802</v>
       </c>
-      <c r="M16">
+      <c r="M20">
         <v>0.73242467718794801</v>
       </c>
-      <c r="O16">
+      <c r="O20">
         <v>4</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P20" t="s">
         <v>8</v>
       </c>
-      <c r="Q16">
+      <c r="Q20">
         <v>0.76234747239976797</v>
       </c>
-      <c r="R16">
+      <c r="R20">
         <v>0.52535598857168297</v>
       </c>
-      <c r="S16">
+      <c r="S20">
         <v>0.79820051413881699</v>
       </c>
-      <c r="T16">
+      <c r="T20">
         <v>0.73276776246023301</v>
       </c>
-      <c r="V16">
+      <c r="V20">
         <v>4</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W20" t="s">
         <v>8</v>
       </c>
-      <c r="X16">
+      <c r="X20">
         <f t="shared" si="5"/>
         <v>0.75963587061785798</v>
       </c>
-      <c r="Y16">
+      <c r="Y20">
         <f t="shared" si="2"/>
         <v>0.5198661600416824</v>
       </c>
-      <c r="Z16">
+      <c r="Z20">
         <f t="shared" si="3"/>
         <v>0.79182122401118438</v>
       </c>
-      <c r="AA16">
+      <c r="AA20">
         <f t="shared" si="4"/>
         <v>0.73253903894537631</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>0.76680224675576203</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>0.53428716685014199</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>0.80482550624730698</v>
       </c>
-      <c r="F17">
+      <c r="F21">
         <v>0.73574947220267395</v>
       </c>
-      <c r="H17">
+      <c r="H21">
         <v>5</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I21" t="s">
         <v>9</v>
       </c>
-      <c r="J17">
+      <c r="J21">
         <v>0.76680224675576203</v>
       </c>
-      <c r="K17">
+      <c r="K21">
         <v>0.53428716685014199</v>
       </c>
-      <c r="L17">
+      <c r="L21">
         <v>0.80482550624730698</v>
       </c>
-      <c r="M17">
+      <c r="M21">
         <v>0.73574947220267395</v>
       </c>
-      <c r="O17">
+      <c r="O21">
         <v>5</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P21" t="s">
         <v>9</v>
       </c>
-      <c r="Q17">
+      <c r="Q21">
         <v>0.77300019368584205</v>
       </c>
-      <c r="R17">
+      <c r="R21">
         <v>0.54691949771035098</v>
       </c>
-      <c r="S17">
+      <c r="S21">
         <v>0.82575416479063501</v>
       </c>
-      <c r="T17">
+      <c r="T21">
         <v>0.73317471108089705</v>
       </c>
-      <c r="V17">
+      <c r="V21">
         <v>5</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W21" t="s">
         <v>9</v>
       </c>
-      <c r="X17">
+      <c r="X21">
         <f t="shared" si="5"/>
         <v>0.76886822906578856</v>
       </c>
-      <c r="Y17">
+      <c r="Y21">
         <f t="shared" si="2"/>
         <v>0.53849794380354499</v>
       </c>
-      <c r="Z17">
+      <c r="Z21">
         <f t="shared" si="3"/>
         <v>0.81180172576174969</v>
       </c>
-      <c r="AA17">
+      <c r="AA21">
         <f t="shared" si="4"/>
         <v>0.73489121849541494</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C22">
         <v>0.77304415182029396</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <v>0.54282216181786802</v>
       </c>
-      <c r="E18">
+      <c r="E22">
         <v>0.79128856624319399</v>
       </c>
-      <c r="F18">
+      <c r="F22">
         <v>0.75945945945945903</v>
       </c>
-      <c r="H18">
+      <c r="H22">
         <v>6</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I22" t="s">
         <v>10</v>
       </c>
-      <c r="J18">
+      <c r="J22">
         <v>0.77304415182029396</v>
       </c>
-      <c r="K18">
+      <c r="K22">
         <v>0.54282216181786802</v>
       </c>
-      <c r="L18">
+      <c r="L22">
         <v>0.79128856624319399</v>
       </c>
-      <c r="M18">
+      <c r="M22">
         <v>0.75945945945945903</v>
       </c>
-      <c r="O18">
+      <c r="O22">
         <v>6</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P22" t="s">
         <v>10</v>
       </c>
-      <c r="Q18">
+      <c r="Q22">
         <v>0.78079008520526705</v>
       </c>
-      <c r="R18">
+      <c r="R22">
         <v>0.55741450302060502</v>
       </c>
-      <c r="S18">
+      <c r="S22">
         <v>0.81765834932821502</v>
       </c>
-      <c r="T18">
+      <c r="T22">
         <v>0.75584415584415598</v>
       </c>
-      <c r="V18">
+      <c r="V22">
         <v>6</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W22" t="s">
         <v>10</v>
       </c>
-      <c r="X18">
+      <c r="X22">
         <f t="shared" si="5"/>
         <v>0.77562612961528499</v>
       </c>
-      <c r="Y18">
+      <c r="Y22">
         <f t="shared" si="2"/>
         <v>0.54768627555211369</v>
       </c>
-      <c r="Z18">
+      <c r="Z22">
         <f t="shared" si="3"/>
         <v>0.80007849393820096</v>
       </c>
-      <c r="AA18">
+      <c r="AA22">
         <f t="shared" si="4"/>
         <v>0.75825435825435805</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H25" t="s">
         <v>13</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O25" t="s">
         <v>13</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E26" t="s">
         <v>3</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F26" t="s">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I26" t="s">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J26" t="s">
         <v>1</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K26" t="s">
         <v>2</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L26" t="s">
         <v>3</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M26" t="s">
         <v>4</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P26" t="s">
         <v>0</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q26" t="s">
         <v>1</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R26" t="s">
         <v>2</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S26" t="s">
         <v>3</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T26" t="s">
         <v>4</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W26" t="s">
         <v>0</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X26" t="s">
         <v>1</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y26" t="s">
         <v>2</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z26" t="s">
         <v>3</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AA26" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <f>C13-C3</f>
-        <v>-8.7158628704239183E-3</v>
-      </c>
-      <c r="D23">
-        <f>D13-D3</f>
-        <v>-1.7685128838253017E-2</v>
-      </c>
-      <c r="E23">
-        <f>E13-E3</f>
-        <v>1.145475372279503E-2</v>
-      </c>
-      <c r="F23">
-        <f>F13-F3</f>
-        <v>-2.9481132075470984E-2</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <f>J13-J3</f>
-        <v>-5.0358318806899005E-3</v>
-      </c>
-      <c r="K23">
-        <f>K13-K3</f>
-        <v>-1.0170888705947956E-2</v>
-      </c>
-      <c r="L23">
-        <f>L13-L3</f>
-        <v>3.0546009927450157E-3</v>
-      </c>
-      <c r="M23">
-        <f>M13-M3</f>
-        <v>-1.3364779874213917E-2</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23">
-        <f>Q13-Q3</f>
-        <v>2.9052876234739733E-3</v>
-      </c>
-      <c r="R23">
-        <f>R13-R3</f>
-        <v>5.6814543355450109E-3</v>
-      </c>
-      <c r="S23">
-        <f>S13-S3</f>
-        <v>1.1454753722794919E-2</v>
-      </c>
-      <c r="T23">
-        <f>T13-T3</f>
-        <v>-5.8962264150950183E-3</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23">
-        <f>X13-X3</f>
-        <v>-3.6154690425466152E-3</v>
-      </c>
-      <c r="Y23">
-        <f>Y13-Y3</f>
-        <v>-7.3915210695518763E-3</v>
-      </c>
-      <c r="Z23">
-        <f>Z13-Z3</f>
-        <v>8.6547028127782477E-3</v>
-      </c>
-      <c r="AA23">
-        <f>AA13-AA3</f>
-        <v>-1.6247379454926603E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <f>C14-C4</f>
-        <v>2.9052876234740843E-3</v>
-      </c>
-      <c r="D24">
-        <f>D14-D4</f>
-        <v>5.5297410294419813E-3</v>
-      </c>
-      <c r="E24">
-        <f>E14-E4</f>
-        <v>1.9854906452845045E-2</v>
-      </c>
-      <c r="F24">
-        <f>F14-F4</f>
-        <v>-1.4544025157231966E-2</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24">
-        <f>J14-J4</f>
-        <v>3.8737168312990011E-3</v>
-      </c>
-      <c r="K24">
-        <f>K14-K4</f>
-        <v>7.859107374201979E-3</v>
-      </c>
-      <c r="L24">
-        <f>L14-L4</f>
-        <v>-5.3455517373039996E-3</v>
-      </c>
-      <c r="M24">
-        <f>M14-M4</f>
-        <v>1.3364779874214028E-2</v>
-      </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="P24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24">
-        <f>Q14-Q4</f>
-        <v>2.1305442572140398E-3</v>
-      </c>
-      <c r="R24">
-        <f>R14-R4</f>
-        <v>4.3116109688969839E-3</v>
-      </c>
-      <c r="S24">
-        <f>S14-S4</f>
-        <v>-2.2909507445589838E-3</v>
-      </c>
-      <c r="T24">
-        <f>T14-T4</f>
-        <v>6.6823899371070139E-3</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24" t="s">
-        <v>6</v>
-      </c>
-      <c r="X24">
-        <f>X14-X4</f>
-        <v>2.9698495706624861E-3</v>
-      </c>
-      <c r="Y24">
-        <f>Y14-Y4</f>
-        <v>5.9001531241802962E-3</v>
-      </c>
-      <c r="Z24">
-        <f>Z14-Z4</f>
-        <v>4.0728013236608351E-3</v>
-      </c>
-      <c r="AA24">
-        <f>AA14-AA4</f>
-        <v>1.8343815513630624E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <f>C15-C5</f>
-        <v>-4.4547743559940622E-3</v>
-      </c>
-      <c r="D25">
-        <f>D15-D5</f>
-        <v>-9.0962104100450469E-3</v>
-      </c>
-      <c r="E25">
-        <f>E15-E5</f>
-        <v>-1.3619494311007063E-2</v>
-      </c>
-      <c r="F25">
-        <f>F15-F5</f>
-        <v>2.0825340651370317E-3</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25">
-        <f>J15-J5</f>
-        <v>-4.4547743559940622E-3</v>
-      </c>
-      <c r="K25">
-        <f>K15-K5</f>
-        <v>-9.0270613242839914E-3</v>
-      </c>
-      <c r="L25">
-        <f>L15-L5</f>
-        <v>-1.039115838760496E-2</v>
-      </c>
-      <c r="M25">
-        <f>M15-M5</f>
-        <v>-1.205179823370317E-4</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q25">
-        <f>Q15-Q5</f>
-        <v>1.3558008909539954E-3</v>
-      </c>
-      <c r="R25">
-        <f>R15-R5</f>
-        <v>2.6898961863450754E-3</v>
-      </c>
-      <c r="S25">
-        <f>S15-S5</f>
-        <v>6.0971201774395745E-4</v>
-      </c>
-      <c r="T25">
-        <f>T15-T5</f>
-        <v>1.854788780273009E-3</v>
-      </c>
-      <c r="V25">
-        <v>3</v>
-      </c>
-      <c r="W25" t="s">
-        <v>7</v>
-      </c>
-      <c r="X25">
-        <f>X15-X5</f>
-        <v>-2.5179159403446727E-3</v>
-      </c>
-      <c r="Y25">
-        <f>Y15-Y5</f>
-        <v>-5.1444585159946543E-3</v>
-      </c>
-      <c r="Z25">
-        <f>Z15-Z5</f>
-        <v>-7.8003135602893181E-3</v>
-      </c>
-      <c r="AA25">
-        <f>AA15-AA5</f>
-        <v>1.272268287691003E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <f>C16-C6</f>
-        <v>-5.0358318806890123E-3</v>
-      </c>
-      <c r="D26">
-        <f>D16-D6</f>
-        <v>-1.0192812967705023E-2</v>
-      </c>
-      <c r="E26">
-        <f>E16-E6</f>
-        <v>-1.1798528579514023E-2</v>
-      </c>
-      <c r="F26">
-        <f>F16-F6</f>
-        <v>-4.8582316441303508E-4</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26">
-        <f>J16-J6</f>
-        <v>-9.6842920782490571E-3</v>
-      </c>
-      <c r="K26">
-        <f>K16-K6</f>
-        <v>-1.9606490726626014E-2</v>
-      </c>
-      <c r="L26">
-        <f>L16-L6</f>
-        <v>-2.3676113360323936E-2</v>
-      </c>
-      <c r="M26">
-        <f>M16-M6</f>
-        <v>-6.0856380928198117E-4</v>
-      </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
-      <c r="P26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26">
-        <f>Q16-Q6</f>
-        <v>-5.2295177222539957E-3</v>
-      </c>
-      <c r="R26">
-        <f>R16-R6</f>
-        <v>-1.0645255228972972E-2</v>
-      </c>
-      <c r="S26">
-        <f>S16-S6</f>
-        <v>-1.6154824806686063E-2</v>
-      </c>
-      <c r="T26">
-        <f>T16-T6</f>
-        <v>1.5220639055190111E-3</v>
-      </c>
-      <c r="V26">
-        <v>4</v>
-      </c>
-      <c r="W26" t="s">
-        <v>8</v>
-      </c>
-      <c r="X26">
-        <f>X16-X6</f>
-        <v>-6.6498805603973921E-3</v>
-      </c>
-      <c r="Y26">
-        <f>Y16-Y6</f>
-        <v>-1.3481519641101225E-2</v>
-      </c>
-      <c r="Z26">
-        <f>Z16-Z6</f>
-        <v>-1.7209822248841267E-2</v>
-      </c>
-      <c r="AA26">
-        <f>AA16-AA6</f>
-        <v>1.4255897727466493E-4</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
       <c r="C27">
-        <f>C17-C7</f>
-        <v>-4.4547743559949504E-3</v>
+        <f t="shared" ref="C27:F32" si="6">C17-C7</f>
+        <v>-8.7158628704239183E-3</v>
       </c>
       <c r="D27">
-        <f>D17-D7</f>
-        <v>-9.2940158140809581E-3</v>
+        <f t="shared" si="6"/>
+        <v>-1.7685128838253017E-2</v>
       </c>
       <c r="E27">
-        <f>E17-E7</f>
-        <v>-2.7122785534779981E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.145475372279503E-2</v>
       </c>
       <c r="F27">
-        <f>F17-F7</f>
-        <v>8.3554114752799613E-3</v>
+        <f t="shared" si="6"/>
+        <v>-2.9481132075470984E-2</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>5</v>
       </c>
-      <c r="I27" t="s">
-        <v>9</v>
-      </c>
       <c r="J27">
-        <f>J17-J7</f>
-        <v>-1.9368584156499447E-3</v>
+        <f t="shared" ref="J27:M32" si="7">J17-J7</f>
+        <v>-5.0358318806899005E-3</v>
       </c>
       <c r="K27">
-        <f>K17-K7</f>
-        <v>-4.3657607841990353E-3</v>
+        <f t="shared" si="7"/>
+        <v>-1.0170888705947956E-2</v>
       </c>
       <c r="L27">
-        <f>L17-L7</f>
-        <v>-2.9838655330899022E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.0546009927450157E-3</v>
       </c>
       <c r="M27">
-        <f>M17-M7</f>
-        <v>1.3270896065560978E-2</v>
+        <f t="shared" si="7"/>
+        <v>-1.3364779874213917E-2</v>
       </c>
       <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
         <v>5</v>
       </c>
-      <c r="P27" t="s">
-        <v>9</v>
-      </c>
       <c r="Q27">
-        <f>Q17-Q7</f>
-        <v>6.5853186132101005E-3</v>
+        <f t="shared" ref="Q27:T32" si="8">Q17-Q7</f>
+        <v>2.9052876234739733E-3</v>
       </c>
       <c r="R27">
-        <f>R17-R7</f>
-        <v>1.3091615598872952E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.6814543355450109E-3</v>
       </c>
       <c r="S27">
-        <f>S17-S7</f>
-        <v>4.7637059083089905E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.1454753722794919E-2</v>
       </c>
       <c r="T27">
-        <f>T17-T7</f>
-        <v>7.3138062868390863E-3</v>
+        <f t="shared" si="8"/>
+        <v>-5.8962264150950183E-3</v>
       </c>
       <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
         <v>5</v>
       </c>
-      <c r="W27" t="s">
-        <v>9</v>
-      </c>
       <c r="X27">
-        <f>X17-X7</f>
-        <v>6.4561947188179758E-5</v>
+        <f t="shared" ref="X27:AA32" si="9">X17-X7</f>
+        <v>-3.6154690425466152E-3</v>
       </c>
       <c r="Y27">
-        <f>Y17-Y7</f>
-        <v>-1.8938699980231011E-4</v>
+        <f t="shared" si="9"/>
+        <v>-7.3915210695518763E-3</v>
       </c>
       <c r="Z27">
-        <f>Z17-Z7</f>
-        <v>-1.7399244985790041E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.6547028127782477E-3</v>
       </c>
       <c r="AA27">
-        <f>AA17-AA7</f>
-        <v>9.6467046092266751E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.6247379454926603E-2</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28">
+        <f t="shared" si="6"/>
+        <v>2.9052876234740843E-3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>5.5297410294419813E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>1.9854906452845045E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>-1.4544025157231966E-2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>3.8737168312990011E-3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>7.859107374201979E-3</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>-5.3455517373039996E-3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>1.3364779874214028E-2</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="8"/>
+        <v>2.1305442572140398E-3</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="8"/>
+        <v>4.3116109688969839E-3</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="8"/>
+        <v>-2.2909507445589838E-3</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="8"/>
+        <v>6.6823899371070139E-3</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="9"/>
+        <v>2.9698495706624861E-3</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="9"/>
+        <v>5.9001531241802962E-3</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="9"/>
+        <v>4.0728013236608351E-3</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="9"/>
+        <v>1.8343815513630624E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="6"/>
+        <v>-4.4547743559940622E-3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>-9.0962104100450469E-3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>-1.3619494311007063E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>2.0825340651370317E-3</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>-4.4547743559940622E-3</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>-9.0270613242839914E-3</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>-1.039115838760496E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>-1.205179823370317E-4</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="8"/>
+        <v>1.3558008909539954E-3</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="8"/>
+        <v>2.6898961863450754E-3</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="8"/>
+        <v>6.0971201774395745E-4</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="8"/>
+        <v>1.854788780273009E-3</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29" t="s">
+        <v>7</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="9"/>
+        <v>-2.5179159403446727E-3</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="9"/>
+        <v>-5.1444585159946543E-3</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="9"/>
+        <v>-7.8003135602893181E-3</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="9"/>
+        <v>1.272268287691003E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>-5.0358318806890123E-3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>-1.0192812967705023E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>-1.1798528579514023E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>-4.8582316441303508E-4</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>-9.6842920782490571E-3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>-1.9606490726626014E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>-2.3676113360323936E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>-6.0856380928198117E-4</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="8"/>
+        <v>-5.2295177222539957E-3</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>-1.0645255228972972E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="8"/>
+        <v>-1.6154824806686063E-2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="8"/>
+        <v>1.5220639055190111E-3</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="9"/>
+        <v>-6.6498805603973921E-3</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="9"/>
+        <v>-1.3481519641101225E-2</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="9"/>
+        <v>-1.7209822248841267E-2</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="9"/>
+        <v>1.4255897727466493E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>-4.4547743559949504E-3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>-9.2940158140809581E-3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>-2.7122785534779981E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>8.3554114752799613E-3</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>-1.9368584156499447E-3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>-4.3657607841990353E-3</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>-2.9838655330899022E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="7"/>
+        <v>1.3270896065560978E-2</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="8"/>
+        <v>6.5853186132101005E-3</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>1.3091615598872952E-2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="8"/>
+        <v>4.7637059083089905E-3</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="8"/>
+        <v>7.3138062868390863E-3</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31" t="s">
+        <v>9</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="9"/>
+        <v>6.4561947188179758E-5</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="9"/>
+        <v>-1.8938699980231011E-4</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="9"/>
+        <v>-1.7399244985790041E-2</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="9"/>
+        <v>9.6467046092266751E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
-        <f>C18-C8</f>
+      <c r="C32">
+        <f t="shared" si="6"/>
         <v>-5.422153369481042E-3</v>
       </c>
-      <c r="D28">
-        <f>D18-D8</f>
+      <c r="D32">
+        <f t="shared" si="6"/>
         <v>-9.798193249572984E-3</v>
       </c>
-      <c r="E28">
-        <f>E18-E8</f>
+      <c r="E32">
+        <f t="shared" si="6"/>
         <v>-2.5313750359122977E-2</v>
       </c>
-      <c r="F28">
-        <f>F18-F8</f>
+      <c r="F32">
+        <f t="shared" si="6"/>
         <v>6.5487220726540007E-3</v>
       </c>
-      <c r="H28">
+      <c r="H32">
         <v>6</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I32" t="s">
         <v>10</v>
       </c>
-      <c r="J28">
-        <f>J18-J8</f>
+      <c r="J32">
+        <f t="shared" si="7"/>
         <v>5.422153369480931E-3</v>
       </c>
-      <c r="K28">
-        <f>K18-K8</f>
+      <c r="K32">
+        <f t="shared" si="7"/>
         <v>1.3034746955119969E-2</v>
       </c>
-      <c r="L28">
-        <f>L18-L8</f>
+      <c r="L32">
+        <f t="shared" si="7"/>
         <v>-2.7817124813717009E-2</v>
       </c>
-      <c r="M28">
-        <f>M18-M8</f>
+      <c r="M32">
+        <f t="shared" si="7"/>
         <v>2.3539559584615066E-2</v>
       </c>
-      <c r="O28">
+      <c r="O32">
         <v>6</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P32" t="s">
         <v>10</v>
       </c>
-      <c r="Q28">
-        <f>Q18-Q8</f>
+      <c r="Q32">
+        <f t="shared" si="8"/>
         <v>3.8729666924860462E-3</v>
       </c>
-      <c r="R28">
-        <f>R18-R8</f>
+      <c r="R32">
+        <f t="shared" si="8"/>
         <v>5.4601597946489777E-3</v>
       </c>
-      <c r="S28">
-        <f>S18-S8</f>
+      <c r="S32">
+        <f t="shared" si="8"/>
         <v>4.1387162887536966E-2</v>
       </c>
-      <c r="T28">
-        <f>T18-T8</f>
+      <c r="T32">
+        <f t="shared" si="8"/>
         <v>-2.1616614483947028E-2</v>
       </c>
-      <c r="V28">
+      <c r="V32">
         <v>6</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W32" t="s">
         <v>10</v>
       </c>
-      <c r="X28">
-        <f>X18-X8</f>
+      <c r="X32">
+        <f t="shared" si="9"/>
         <v>1.2909888974953487E-3</v>
       </c>
-      <c r="Y28">
-        <f>Y18-Y8</f>
+      <c r="Y32">
+        <f t="shared" si="9"/>
         <v>2.8989045000652469E-3</v>
       </c>
-      <c r="Z28">
-        <f>Z18-Z8</f>
+      <c r="Z32">
+        <f t="shared" si="9"/>
         <v>-3.9145707617677106E-3</v>
       </c>
-      <c r="AA28">
-        <f>AA18-AA8</f>
+      <c r="AA32">
+        <f t="shared" si="9"/>
         <v>2.8238890577740872E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D37" t="s">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E37" t="s">
         <v>3</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F37" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1">
-        <f>AVERAGE(C23,J23,Q23,X23)</f>
-        <v>-3.6154690425466152E-3</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" ref="D34:F34" si="6">AVERAGE(D23,K23,R23,Y23)</f>
-        <v>-7.3915210695519595E-3</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="6"/>
-        <v>8.6547028127783032E-3</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.624737945492663E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" ref="C35:C39" si="7">AVERAGE(C24,J24,Q24,X24)</f>
-        <v>2.9698495706624028E-3</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" ref="D35:D39" si="8">AVERAGE(D24,K24,R24,Y24)</f>
-        <v>5.9001531241803101E-3</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" ref="E35:E39" si="9">AVERAGE(E24,L24,S24,Z24)</f>
-        <v>4.0728013236607241E-3</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" ref="F35:F39" si="10">AVERAGE(F24,M24,T24,AA24)</f>
-        <v>1.8343815513630346E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="7"/>
-        <v>-2.5179159403447005E-3</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="8"/>
-        <v>-5.1444585159946543E-3</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="9"/>
-        <v>-7.8003135602893459E-3</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="10"/>
-        <v>1.272268287691003E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="7"/>
-        <v>-6.6498805603973643E-3</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.3481519641101308E-2</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.7209822248841322E-2</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="10"/>
-        <v>1.4255897727466493E-4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
       <c r="C38" s="1">
-        <f t="shared" si="7"/>
-        <v>6.4561947188346291E-5</v>
+        <f>AVERAGE(C27,J27,Q27,X27)</f>
+        <v>-3.6154690425466152E-3</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.8938699980233786E-4</v>
+        <f t="shared" ref="D38:F38" si="10">AVERAGE(D27,K27,R27,Y27)</f>
+        <v>-7.3915210695519595E-3</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.7399244985790013E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.6547028127783032E-3</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="10"/>
-        <v>9.6467046092266751E-3</v>
+        <v>-1.624737945492663E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:C43" si="11">AVERAGE(C28,J28,Q28,X28)</f>
+        <v>2.9698495706624028E-3</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" ref="D39:D43" si="12">AVERAGE(D28,K28,R28,Y28)</f>
+        <v>5.9001531241803101E-3</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" ref="E39:E43" si="13">AVERAGE(E28,L28,S28,Z28)</f>
+        <v>4.0728013236607241E-3</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ref="F39:F43" si="14">AVERAGE(F28,M28,T28,AA28)</f>
+        <v>1.8343815513630346E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="11"/>
+        <v>-2.5179159403447005E-3</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="12"/>
+        <v>-5.1444585159946543E-3</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="13"/>
+        <v>-7.8003135602893459E-3</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="14"/>
+        <v>1.272268287691003E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="11"/>
+        <v>-6.6498805603973643E-3</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.3481519641101308E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="13"/>
+        <v>-1.7209822248841322E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="14"/>
+        <v>1.4255897727466493E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="11"/>
+        <v>6.4561947188346291E-5</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.8938699980233786E-4</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="13"/>
+        <v>-1.7399244985790013E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="14"/>
+        <v>9.6467046092266751E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="7"/>
+      <c r="C43" s="1">
+        <f t="shared" si="11"/>
         <v>1.290988897495321E-3</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="8"/>
+      <c r="D43" s="1">
+        <f t="shared" si="12"/>
         <v>2.8989045000653024E-3</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" si="9"/>
+      <c r="E43" s="1">
+        <f t="shared" si="13"/>
         <v>-3.9145707617676828E-3</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="10"/>
+      <c r="F43" s="1">
+        <f t="shared" si="14"/>
         <v>2.8238890577740317E-3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C23:F28">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="C27:F32">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:M28">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="J27:M32">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X23:AA28">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="X27:AA32">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:T28">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="Q27:T32">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:F39">
+  <conditionalFormatting sqref="C38:F43">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3187,11 +3162,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
